--- a/banco de modulos e inversores.xlsx
+++ b/banco de modulos e inversores.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\breno\Desktop\teste enviar arquivos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01524C4C-51D2-4ACF-A584-7AE022EB59FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="modulos" sheetId="1" r:id="rId1"/>
     <sheet name="inversores" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>Fabricante</t>
   </si>
@@ -166,12 +160,84 @@
   </si>
   <si>
     <t>LEPTON</t>
+  </si>
+  <si>
+    <t>10,5KTLM-G3</t>
+  </si>
+  <si>
+    <t>TDH</t>
+  </si>
+  <si>
+    <t>&lt;3%</t>
+  </si>
+  <si>
+    <t>T_C</t>
+  </si>
+  <si>
+    <t>F+N+T</t>
+  </si>
+  <si>
+    <t>SOFAR</t>
+  </si>
+  <si>
+    <t>maxima_potencia_entrada</t>
+  </si>
+  <si>
+    <t>potencia_nominal</t>
+  </si>
+  <si>
+    <t>maxima_tensao</t>
+  </si>
+  <si>
+    <t>minima_tensao</t>
+  </si>
+  <si>
+    <t>maxima_corrente</t>
+  </si>
+  <si>
+    <t>maxima_tensao_MPPT</t>
+  </si>
+  <si>
+    <t>tensao_partida</t>
+  </si>
+  <si>
+    <t>quantidade_strings</t>
+  </si>
+  <si>
+    <t>entrada_strings</t>
+  </si>
+  <si>
+    <t>potencia_nominalca</t>
+  </si>
+  <si>
+    <t>maxima_potencia_saidaca</t>
+  </si>
+  <si>
+    <t>maxima_corrente_saidaca</t>
+  </si>
+  <si>
+    <t>frequencia_nominal</t>
+  </si>
+  <si>
+    <t>fator_potencia</t>
+  </si>
+  <si>
+    <t>eficiencia_maxima</t>
+  </si>
+  <si>
+    <t>tensao_nominalca</t>
+  </si>
+  <si>
+    <t>maxima_tensaoca</t>
+  </si>
+  <si>
+    <t>minima_tensaoca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -288,7 +354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -323,7 +389,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -500,18 +566,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3963,13 +4029,175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FF4E62-5E7E-41B3-9CC0-AD15366E4981}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1">
+        <v>550</v>
+      </c>
+      <c r="F2" s="2">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2">
+        <v>550</v>
+      </c>
+      <c r="H2" s="2">
+        <v>80</v>
+      </c>
+      <c r="I2" s="2">
+        <v>90</v>
+      </c>
+      <c r="J2" s="2">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="M2" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="N2" s="2">
+        <v>46</v>
+      </c>
+      <c r="O2" s="2">
+        <v>220</v>
+      </c>
+      <c r="P2" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>276</v>
+      </c>
+      <c r="R2" s="2">
+        <v>180</v>
+      </c>
+      <c r="S2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="U2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="2">
+        <v>98.2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/banco de modulos e inversores.xlsx
+++ b/banco de modulos e inversores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\breno\Desktop\teste enviar arquivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\breno\Desktop\teste enviar arquivos\memorial_automatizado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01524C4C-51D2-4ACF-A584-7AE022EB59FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EE769D-49A1-4369-A342-E75A2BACF135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modulos" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Fabricante</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>LEPTON</t>
+  </si>
+  <si>
+    <t>SOFAR</t>
   </si>
 </sst>
 </file>
@@ -510,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -3964,12 +3967,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FF4E62-5E7E-41B3-9CC0-AD15366E4981}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>